--- a/React/first-react-app/src/hello.xlsx
+++ b/React/first-react-app/src/hello.xlsx
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>26.2</v>
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -411,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>20.3</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>27.9</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>19.4</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -453,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>15.2</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -467,7 +467,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -481,7 +481,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>26.9</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -495,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>34.3</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>27.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -523,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>10.8</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -537,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>21.2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -551,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>16.4</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>27.9</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -579,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>28.4</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -593,7 +593,7 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>14.1</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>16.2</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -621,7 +621,7 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>17.2</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>25.4</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>39.4</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -663,7 +663,7 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>33.3</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -677,7 +677,7 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>29.2</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -691,7 +691,7 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>21.2</v>
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -705,7 +705,7 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>25.4</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -719,7 +719,7 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>23.1</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -733,7 +733,7 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>16.9</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -747,7 +747,7 @@
         <v>25</v>
       </c>
       <c r="D27">
-        <v>9.4</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -761,7 +761,7 @@
         <v>26</v>
       </c>
       <c r="D28">
-        <v>15.2</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -775,7 +775,7 @@
         <v>27</v>
       </c>
       <c r="D29">
-        <v>20.9</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -789,7 +789,7 @@
         <v>28</v>
       </c>
       <c r="D30">
-        <v>27.3</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -803,7 +803,7 @@
         <v>29</v>
       </c>
       <c r="D31">
-        <v>16.7</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -817,7 +817,7 @@
         <v>30</v>
       </c>
       <c r="D32">
-        <v>17.9</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -831,7 +831,7 @@
         <v>31</v>
       </c>
       <c r="D33">
-        <v>16.7</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -845,7 +845,7 @@
         <v>32</v>
       </c>
       <c r="D34">
-        <v>19.4</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -859,7 +859,7 @@
         <v>33</v>
       </c>
       <c r="D35">
-        <v>23.4</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -873,7 +873,7 @@
         <v>34</v>
       </c>
       <c r="D36">
-        <v>13.8</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -887,7 +887,7 @@
         <v>35</v>
       </c>
       <c r="D37">
-        <v>14.1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -901,7 +901,7 @@
         <v>36</v>
       </c>
       <c r="D38">
-        <v>9.199999999999999</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -915,7 +915,7 @@
         <v>37</v>
       </c>
       <c r="D39">
-        <v>26.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -929,7 +929,7 @@
         <v>38</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -943,7 +943,7 @@
         <v>39</v>
       </c>
       <c r="D41">
-        <v>12.3</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -957,7 +957,7 @@
         <v>40</v>
       </c>
       <c r="D42">
-        <v>19.4</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -971,7 +971,7 @@
         <v>41</v>
       </c>
       <c r="D43">
-        <v>17.9</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -985,7 +985,7 @@
         <v>42</v>
       </c>
       <c r="D44">
-        <v>20.3</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -999,7 +999,7 @@
         <v>43</v>
       </c>
       <c r="D45">
-        <v>18.2</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1013,7 +1013,7 @@
         <v>44</v>
       </c>
       <c r="D46">
-        <v>17.9</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1027,7 +1027,7 @@
         <v>45</v>
       </c>
       <c r="D47">
-        <v>9.4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1041,7 +1041,7 @@
         <v>46</v>
       </c>
       <c r="D48">
-        <v>10.9</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1055,7 +1055,7 @@
         <v>47</v>
       </c>
       <c r="D49">
-        <v>17.2</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1069,7 +1069,7 @@
         <v>48</v>
       </c>
       <c r="D50">
-        <v>19.7</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1083,7 +1083,7 @@
         <v>49</v>
       </c>
       <c r="D51">
-        <v>17.9</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1097,7 +1097,7 @@
         <v>50</v>
       </c>
       <c r="D52">
-        <v>22.7</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1111,7 +1111,7 @@
         <v>51</v>
       </c>
       <c r="D53">
-        <v>18.2</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1125,7 +1125,7 @@
         <v>52</v>
       </c>
       <c r="D54">
-        <v>19.7</v>
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1139,7 +1139,7 @@
         <v>53</v>
       </c>
       <c r="D55">
-        <v>24.6</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1153,7 +1153,7 @@
         <v>54</v>
       </c>
       <c r="D56">
-        <v>16.4</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1167,7 +1167,7 @@
         <v>55</v>
       </c>
       <c r="D57">
-        <v>14.1</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1181,7 +1181,7 @@
         <v>56</v>
       </c>
       <c r="D58">
-        <v>18.2</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1195,7 +1195,7 @@
         <v>57</v>
       </c>
       <c r="D59">
-        <v>12.3</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1209,7 +1209,7 @@
         <v>58</v>
       </c>
       <c r="D60">
-        <v>20</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1223,7 +1223,7 @@
         <v>59</v>
       </c>
       <c r="D61">
-        <v>19.4</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1237,7 +1237,7 @@
         <v>60</v>
       </c>
       <c r="D62">
-        <v>19.7</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1251,7 +1251,7 @@
         <v>61</v>
       </c>
       <c r="D63">
-        <v>16.7</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1265,7 +1265,7 @@
         <v>62</v>
       </c>
       <c r="D64">
-        <v>17.9</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1279,7 +1279,7 @@
         <v>63</v>
       </c>
       <c r="D65">
-        <v>26.9</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1293,7 +1293,7 @@
         <v>64</v>
       </c>
       <c r="D66">
-        <v>22.7</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1307,7 +1307,7 @@
         <v>65</v>
       </c>
       <c r="D67">
-        <v>24.2</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1321,7 +1321,7 @@
         <v>66</v>
       </c>
       <c r="D68">
-        <v>9.4</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1335,7 +1335,7 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <v>31.3</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1349,7 +1349,7 @@
         <v>68</v>
       </c>
       <c r="D70">
-        <v>31.8</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1363,7 +1363,7 @@
         <v>69</v>
       </c>
       <c r="D71">
-        <v>60.3</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1377,7 +1377,7 @@
         <v>70</v>
       </c>
       <c r="D72">
-        <v>27.3</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1391,7 +1391,7 @@
         <v>71</v>
       </c>
       <c r="D73">
-        <v>20.9</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1405,7 +1405,7 @@
         <v>72</v>
       </c>
       <c r="D74">
-        <v>20.3</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1419,7 +1419,7 @@
         <v>73</v>
       </c>
       <c r="D75">
-        <v>34.8</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1433,7 +1433,7 @@
         <v>74</v>
       </c>
       <c r="D76">
-        <v>16.7</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1447,7 +1447,7 @@
         <v>75</v>
       </c>
       <c r="D77">
-        <v>22.7</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1461,7 +1461,7 @@
         <v>76</v>
       </c>
       <c r="D78">
-        <v>23.5</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1475,7 +1475,7 @@
         <v>77</v>
       </c>
       <c r="D79">
-        <v>24.2</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1489,7 +1489,7 @@
         <v>78</v>
       </c>
       <c r="D80">
-        <v>24.6</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1503,7 +1503,7 @@
         <v>79</v>
       </c>
       <c r="D81">
-        <v>10.8</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1517,7 +1517,7 @@
         <v>80</v>
       </c>
       <c r="D82">
-        <v>10.8</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1531,7 +1531,7 @@
         <v>81</v>
       </c>
       <c r="D83">
-        <v>17.9</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1545,7 +1545,7 @@
         <v>82</v>
       </c>
       <c r="D84">
-        <v>29.9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1559,7 +1559,7 @@
         <v>83</v>
       </c>
       <c r="D85">
-        <v>30.9</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1573,7 +1573,7 @@
         <v>84</v>
       </c>
       <c r="D86">
-        <v>10.8</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1587,7 +1587,7 @@
         <v>85</v>
       </c>
       <c r="D87">
-        <v>24.2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1601,7 +1601,7 @@
         <v>86</v>
       </c>
       <c r="D88">
-        <v>16.9</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1615,7 +1615,7 @@
         <v>87</v>
       </c>
       <c r="D89">
-        <v>26.5</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1629,7 +1629,7 @@
         <v>88</v>
       </c>
       <c r="D90">
-        <v>33.8</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1643,7 +1643,7 @@
         <v>89</v>
       </c>
       <c r="D91">
-        <v>16.9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1657,7 +1657,7 @@
         <v>90</v>
       </c>
       <c r="D92">
-        <v>22.4</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1671,7 +1671,7 @@
         <v>91</v>
       </c>
       <c r="D93">
-        <v>12.3</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1685,7 +1685,7 @@
         <v>92</v>
       </c>
       <c r="D94">
-        <v>23.5</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1699,7 +1699,7 @@
         <v>93</v>
       </c>
       <c r="D95">
-        <v>22.7</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1713,7 +1713,7 @@
         <v>94</v>
       </c>
       <c r="D96">
-        <v>18.2</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1727,7 +1727,7 @@
         <v>95</v>
       </c>
       <c r="D97">
-        <v>12.5</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1741,7 +1741,7 @@
         <v>96</v>
       </c>
       <c r="D98">
-        <v>12.5</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1755,7 +1755,7 @@
         <v>97</v>
       </c>
       <c r="D99">
-        <v>18.5</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1769,7 +1769,7 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <v>28.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1783,7 +1783,7 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <v>26.9</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1797,7 +1797,7 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <v>18.2</v>
+        <v>63.8</v>
       </c>
     </row>
   </sheetData>
